--- a/literature/Hsa_rRNA_modifications.xlsx
+++ b/literature/Hsa_rRNA_modifications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flixr\Documents\GitHub\RNAmodR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flixr\Documents\GitHub\RNAmodR\literature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD5BA15A-3D82-4132-ACB9-0050F5436313}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F9554-FDB8-4798-9FCA-B178C4BC986A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{32341E40-543E-4FEF-9A9F-B74FFF8E7705}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="65">
   <si>
     <t>18S</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84DF1055-8E32-47BE-9958-61994210F168}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="I211" sqref="I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,6 +2386,1808 @@
         <v>3</v>
       </c>
     </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>99</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>121</v>
+      </c>
+      <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>159</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>10</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>166</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>172</v>
+      </c>
+      <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>174</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>428</v>
+      </c>
+      <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>436</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>462</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>468</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>484</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>509</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>512</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>517</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>576</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>590</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>601</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>627</v>
+      </c>
+      <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>644</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>668</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>683</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>797</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>799</v>
+      </c>
+      <c r="C135" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>867</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>1031</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>1272</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>1288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>1326</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>1328</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>1383</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>1391</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>1442</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>1447</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>36</v>
+      </c>
+      <c r="E145" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>1490</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>1678</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>39</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>1703</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>1804</v>
+      </c>
+      <c r="C149" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>40</v>
+      </c>
+      <c r="B150">
+        <v>398</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151">
+        <v>400</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152">
+        <v>1316</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>41</v>
+      </c>
+      <c r="E152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153">
+        <v>1326</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154">
+        <v>1340</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>44</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155">
+        <v>1522</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>40</v>
+      </c>
+      <c r="B156">
+        <v>1524</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157">
+        <v>1534</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158">
+        <v>1625</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159">
+        <v>1760</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160">
+        <v>1871</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161">
+        <v>1881</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>46</v>
+      </c>
+      <c r="E161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162">
+        <v>2351</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163">
+        <v>2363</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>48</v>
+      </c>
+      <c r="E163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164">
+        <v>2364</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164" t="s">
+        <v>24</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165">
+        <v>2365</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166">
+        <v>2401</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>40</v>
+      </c>
+      <c r="B167">
+        <v>2415</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168">
+        <v>2422</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>45</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>40</v>
+      </c>
+      <c r="B169">
+        <v>2424</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170">
+        <v>2787</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
+      <c r="E170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>40</v>
+      </c>
+      <c r="B171">
+        <v>2804</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172">
+        <v>2815</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>40</v>
+      </c>
+      <c r="B173">
+        <v>2824</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>53</v>
+      </c>
+      <c r="E173" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174">
+        <v>2837</v>
+      </c>
+      <c r="C174" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175">
+        <v>2861</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176">
+        <v>2876</v>
+      </c>
+      <c r="C176" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177">
+        <v>3701</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>40</v>
+      </c>
+      <c r="B178">
+        <v>3718</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>40</v>
+      </c>
+      <c r="B179">
+        <v>3724</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>40</v>
+      </c>
+      <c r="B180">
+        <v>3744</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>40</v>
+      </c>
+      <c r="B181">
+        <v>3760</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182">
+        <v>3785</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>39</v>
+      </c>
+      <c r="E182" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183">
+        <v>3792</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>56</v>
+      </c>
+      <c r="E183" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184">
+        <v>3808</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185">
+        <v>3818</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186">
+        <v>3825</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187">
+        <v>3830</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188">
+        <v>3841</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189">
+        <v>3867</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>45</v>
+      </c>
+      <c r="E189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190">
+        <v>3869</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191">
+        <v>3887</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192">
+        <v>3899</v>
+      </c>
+      <c r="C192" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" t="s">
+        <v>39</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193">
+        <v>3925</v>
+      </c>
+      <c r="C193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194">
+        <v>3944</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194" t="s">
+        <v>59</v>
+      </c>
+      <c r="E194" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195">
+        <v>4042</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>61</v>
+      </c>
+      <c r="E195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196">
+        <v>4054</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197">
+        <v>4196</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198">
+        <v>4227</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199">
+        <v>4228</v>
+      </c>
+      <c r="C199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200">
+        <v>4306</v>
+      </c>
+      <c r="C200" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201">
+        <v>4370</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202">
+        <v>4392</v>
+      </c>
+      <c r="C202" t="s">
+        <v>15</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203">
+        <v>4456</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>61</v>
+      </c>
+      <c r="E203" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204">
+        <v>4494</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" t="s">
+        <v>39</v>
+      </c>
+      <c r="E204" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205">
+        <v>4498</v>
+      </c>
+      <c r="C205" t="s">
+        <v>5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206">
+        <v>4499</v>
+      </c>
+      <c r="C206" t="s">
+        <v>15</v>
+      </c>
+      <c r="D206" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207">
+        <v>4523</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>22</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208">
+        <v>4536</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+      <c r="E208" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209">
+        <v>4571</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210">
+        <v>4590</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>21</v>
+      </c>
+      <c r="E210" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211">
+        <v>4618</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212">
+        <v>4620</v>
+      </c>
+      <c r="C212" t="s">
+        <v>5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>43</v>
+      </c>
+      <c r="E212" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>40</v>
+      </c>
+      <c r="B213">
+        <v>4623</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214">
+        <v>4637</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>64</v>
+      </c>
+      <c r="B215">
+        <v>14</v>
+      </c>
+      <c r="C215" t="s">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>64</v>
+      </c>
+      <c r="B216">
+        <v>75</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
